--- a/biology/Zoologie/Galerucella/Galerucella.xlsx
+++ b/biology/Zoologie/Galerucella/Galerucella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerucella est un genre d'insectes coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Galerucella est décrit par Crotch en 1873[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Galerucella est décrit par Crotch en 1873.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,11 +584,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (22 mai 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (22 mai 2014) :
 Galerucella nymphaeae (Linnaeus, 1758)
-Selon NCBI  (22 mai 2014)[2] :
+Selon NCBI  (22 mai 2014) :
 Galerucella birmanica
 Galerucella calmariensis
 Galerucella funesta
@@ -615,9 +633,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, quatre espèces fossiles sont référencées[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, quatre espèces fossiles sont référencées :
 †Galerucella affinis, B. Förster 1891
 †Galerucella emarginata, Théobald 1937
 †Galerucella picea, Scudder 1879
